--- a/biology/Botanique/Acacia_cultriformis/Acacia_cultriformis.xlsx
+++ b/biology/Botanique/Acacia_cultriformis/Acacia_cultriformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acacia cultriformis (feuilles en forme de couteau[1]) est une espèce d'acacias de la famille des Mimosaceae, ou des Fabaceae selon la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acacia cultriformis (feuilles en forme de couteau) est une espèce d'acacias de la famille des Mimosaceae, ou des Fabaceae selon la classification phylogénétique.
 Elle est originaire d'Australie mais elle est cultivée dans de nombreux pays en Afrique, en Amérique, en Asie du Sud-Est et en Nouvelle-Zélande. Ce sont des arbustes de 2 à 3 m de haut cultivés pour leurs fleurs comestibles utilisées pour faire des beignets. On utilise leurs pigments jaunes pour faire des teintures mais aussi les pigments verts de leurs gousses.
 Comme cette espèce porte de nombreuses épines, elle est utilisée pour faire des haies.
 </t>
